--- a/biology/Zoologie/Dromia_personata/Dromia_personata.xlsx
+++ b/biology/Zoologie/Dromia_personata/Dromia_personata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dromia personata, la dromie, est une espèce de crabes vivant dans la mer Méditerranée, la mer du Nord et le nord-est de l'océan Atlantique.
 </t>
@@ -511,7 +523,9 @@
           <t>Noms usuels</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dromie velue, crabe-pierre, crabe-éponge, crabe-béret basque, crabe-nounours.
 Noms régionaux : krank-voulouz (Breton), crabe dodu (sud-ouest), tourlourou (Cotentin), oumigrana durmeiré (Provençal), crabe Moscato (bassin d'arcachon), franquet dormidor de furari (Catalan).
@@ -543,7 +557,9 @@
           <t>Morphologie et aspect</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Crabe de forme très arrondie pouvant mesurer jusqu'à 10 cm de largeur, il est facilement reconnaissable à son aspect trapu et le bout de ses pinces rose.
 Il est très facile de le confondre avec un élément rocheux, ressemblant souvent à une pierre de la couleur de la roche environnante.
@@ -575,7 +591,9 @@
           <t>Spécificités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La Dromie recouvre souvent son dos avec une éponge vivante qu'elle maintient avec ses pattes postérieures.
 C'est une espèce nocturne se déplaçant le plus souvent frontalement et assez lentement.
@@ -607,7 +625,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Fond rocheux, galerie, grotte.
 </t>
